--- a/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Iron_limitation_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-control_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-no_Fe_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-control_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e127.48-EX_fe2_e6.61eminus05-EX_fe3_e6.02eminus05-no_Fe_30" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.670570779827801e-18</v>
+        <v>1.218112571122714e-07</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -481,22 +481,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.486256484540255e-10</v>
+        <v>5.041602703792816e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4074074074074074</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4074074074074074</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -504,602 +504,602 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.874994877716882e-09</v>
+        <v>0.0003701484378254726</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.262959898880005e-09</v>
+        <v>0.00187344378862762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3157894736842105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.440437893217883e-08</v>
+        <v>0.002697692004490733</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.525718507920245e-07</v>
+        <v>0.002697692004490733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.566676099562588e-06</v>
+        <v>0.002697692004490733</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.968999707380106e-06</v>
+        <v>0.004410403446868079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3076923076923077</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.931310044671233e-06</v>
+        <v>0.01742561206137239</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196078431372549</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.196078431372549</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.221318634784369e-05</v>
+        <v>0.0195185950913153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.515103895281119e-05</v>
+        <v>0.05316040126496445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4166666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.477778898517257e-05</v>
+        <v>0.07068860436576567</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.548718802898824e-05</v>
+        <v>0.1139913613903609</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3846153846153846</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001744111276420025</v>
+        <v>0.1495050805348084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001744111276420025</v>
+        <v>0.1752087996232191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003196151778231104</v>
+        <v>0.1870178557714626</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2777777777777778</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0005048646531094984</v>
+        <v>0.2003520220075344</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1023622047244094</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1023622047244094</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001086611458906747</v>
+        <v>0.2301116679532609</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2173913043478261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00127031142905628</v>
+        <v>0.2559157737354568</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.00127031142905628</v>
+        <v>0.3117283506755564</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.003991474332686766</v>
+        <v>0.4706306189478036</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2105263157894737</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.009835456403682394</v>
+        <v>0.4706306189478036</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2307692307692308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.02370209104389337</v>
+        <v>0.5206854492565487</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2857142857142857</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03087068248361477</v>
+        <v>0.5971698155977803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04735143453171793</v>
+        <v>0.6448686389848317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.06630085325140837</v>
+        <v>0.7029479376080646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1666666666666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07656728904190402</v>
+        <v>0.7549709807980496</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1538461538461539</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.08729604483774173</v>
+        <v>0.7811187193225771</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1035509166725481</v>
+        <v>0.8388432675612674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3333333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1665986732410562</v>
+        <v>0.861757444559019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1665986732410562</v>
+        <v>0.8983343960601484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.225243482436977</v>
+        <v>0.9128409268109998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1428571428571428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.225243482436977</v>
+        <v>0.925292222980857</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1428571428571428</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2401997110821193</v>
+        <v>0.9928938274210821</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05714285714285714</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -1108,64 +1108,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2797906408936648</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1111111111111111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3305244278136683</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09090909090909091</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5684600729422392</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04347826086956522</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1194,35 +1194,35 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Terpenoid backbone biosynthesis</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1232,12 +1232,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1270,12 +1270,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1403,26 +1403,102 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Intracellular demand</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sulfolipid Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fatty acid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Galactolipids metabolism</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,7 +1544,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1476,18 +1552,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.935420774521467e-18</v>
+        <v>5.977553835393868e-08</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1495,450 +1571,450 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.258704597223999e-12</v>
+        <v>3.707525262069314e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4814814814814815</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.62749775380571e-08</v>
+        <v>0.002077882325078518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2894736842105263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.652954998421708e-08</v>
+        <v>0.002077882325078518</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.652954998421708e-08</v>
+        <v>0.003174210784928943</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.455994807101674e-07</v>
+        <v>0.007528699215051934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3461538461538461</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.293594133408795e-07</v>
+        <v>0.01210421493068037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8333333333333334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.895617510059222e-07</v>
+        <v>0.01641336405406059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.901874777682639e-07</v>
+        <v>0.04508432751202474</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1857142857142857</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.646491536340315e-05</v>
+        <v>0.04739357000638283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4166666666666667</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.581112257713809e-05</v>
+        <v>0.08491726481409043</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.754793423442662e-05</v>
+        <v>0.1286210892236385</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001496643903753988</v>
+        <v>0.1388518273883658</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1102362204724409</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001783987246982774</v>
+        <v>0.192253623261308</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001783987246982774</v>
+        <v>0.2058777094656415</v>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003311058287955732</v>
+        <v>0.2240351946271439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2777777777777778</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000396869802376854</v>
+        <v>0.286270113804275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1568627450980392</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0008455513954149398</v>
+        <v>0.338701057833812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lysine metabolism</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4236683257001325</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E20" t="n">
         <v>11</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pyrimidine metabolism</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001124399100598582</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.00128970549667546</v>
+        <v>0.4236683257001325</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.004101707278502135</v>
+        <v>0.4657286692542315</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2105263157894737</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004561192775935133</v>
+        <v>0.4984784160239176</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01004176617294053</v>
+        <v>0.5139746933968561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2307692307692308</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0240419584830048</v>
+        <v>0.5633605789858582</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.04800472066539401</v>
+        <v>0.5633605789858582</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1947,17 +2023,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.05731517238518202</v>
+        <v>0.5945769279224398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1818181818181818</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1966,136 +2042,136 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07079701537053323</v>
+        <v>0.5995154418360742</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07758294587959812</v>
+        <v>0.6648821453913494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1538461538461539</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.09997819364548587</v>
+        <v>0.6692015575183078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06741573033707865</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1043067759333638</v>
+        <v>0.8754880452795508</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1366168379894697</v>
+        <v>0.8917861902960248</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1677698386805713</v>
+        <v>0.9932738653369692</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1677698386805713</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2103,79 +2179,79 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2267677364063254</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.356721667604316</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4024097250854126</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07142857142857142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5712496789912352</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04347826086956522</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2185,16 +2261,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2204,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2223,12 +2299,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2242,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2261,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2280,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2299,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2318,35 +2394,35 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
         <v>13</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2356,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2375,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2394,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2413,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2432,7 +2508,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nicotinate and nicotinamide metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
